--- a/SPARK/Assets/Resources/xml/gameStart_haru.xlsx
+++ b/SPARK/Assets/Resources/xml/gameStart_haru.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\富澤勇太\Documents\SPARK\SPARK\Assets\Resources\xml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{26B3CFEA-1F23-4E64-A948-502E0681659F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19284DB2-CF0D-43CD-8E65-59843A34D428}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{EC73BAE3-5C5E-4EBD-8FD4-8E2F66985A7D}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>EventTitle:</t>
     <phoneticPr fontId="1"/>
@@ -64,58 +64,51 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>name1</t>
-  </si>
-  <si>
-    <t>name2</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
-    <t>name3</t>
-  </si>
-  <si>
     <t>Left</t>
   </si>
   <si>
-    <t>Right</t>
-  </si>
-  <si>
-    <t>Bottom</t>
-  </si>
-  <si>
-    <t>かきくけこ</t>
-  </si>
-  <si>
-    <t>さしすせそ
-たちつてと
-なにぬねの</t>
-  </si>
-  <si>
-    <t>おむらいす</t>
-  </si>
-  <si>
-    <t>はんばーぐ</t>
-  </si>
-  <si>
-    <t>name10</t>
-  </si>
-  <si>
-    <t>からあげ</t>
-  </si>
-  <si>
-    <t>Bold</t>
-  </si>
-  <si>
     <t>test</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ハルがどこかへ向かうシーン</t>
-    <rPh sb="7" eb="8">
-      <t>ム</t>
-    </rPh>
+    <t>Yaku</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ここは……どこ……？」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「さっきまで、家の近くにいたのに……」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「どうして……ハルがここに……？
+だって私今日……」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ハルの葬式に行ってきたんだもん」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ううん……わからないじゃない
+もしかしたら、まだ……」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ハルを追いかけなきゃ……」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ハル……！」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>haru</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -238,8 +231,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8B52C2B-1D27-4902-80D0-4ACAEF51AEFE}" name="テーブル1" displayName="テーブル1" ref="C3:G9" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="C3:G9" xr:uid="{E5DEC013-5169-4928-B539-393666333EEE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8B52C2B-1D27-4902-80D0-4ACAEF51AEFE}" name="テーブル1" displayName="テーブル1" ref="C3:G10" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="C3:G10" xr:uid="{E5DEC013-5169-4928-B539-393666333EEE}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{3EE21F3B-C660-4AF3-91E6-17D4536305CE}" uniqueName="Id" name="Id">
       <xmlColumnPr mapId="2" xpath="/root/items/item/Id" xmlDataType="integer"/>
@@ -568,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13A310A-F4F2-4F2E-AC1B-116947E7B6A5}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -590,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -615,16 +608,16 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -632,36 +625,36 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="54" x14ac:dyDescent="0.55000000000000004">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="90" x14ac:dyDescent="0.55000000000000004">
       <c r="C7">
         <v>3</v>
       </c>
@@ -669,13 +662,13 @@
         <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -683,33 +676,50 @@
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="C9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
